--- a/biology/Botanique/Parc_de_Tennoji/Parc_de_Tennoji.xlsx
+++ b/biology/Botanique/Parc_de_Tennoji/Parc_de_Tennoji.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Parc de Tennoji (天王寺公園) est un parc avec un jardin zoologique situé à Osaka dans l'arrondissement de Tennōji-ku au Japon. Il a été créé en 1909[1].
+Le Parc de Tennoji (天王寺公園) est un parc avec un jardin zoologique situé à Osaka dans l'arrondissement de Tennōji-ku au Japon. Il a été créé en 1909.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1913, le parc a accueilli une exposition coloniale.
 </t>
@@ -543,11 +557,13 @@
           <t>Installations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Zoo de Tennoji[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Zoo de Tennoji
 Musée municipal des beaux-arts d'Osaka
-Keisawa-en[3]
+Keisawa-en
 Château Otsuka
 Tombe de Chausuyama</t>
         </is>
@@ -577,9 +593,11 @@
           <t>Fréquentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au début des années 2000, le parc était fréquenté par beaucoup de sans-abri, en particulier le week-end : ils venaient se délasser en écoutant de la musique et en chantant dans des karaokés temporaires. En 2006, les autorités municipales firent intervenir la police et mirent fin à ces activités sous prétexte qu'elles causaient des nuisances sonores[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au début des années 2000, le parc était fréquenté par beaucoup de sans-abri, en particulier le week-end : ils venaient se délasser en écoutant de la musique et en chantant dans des karaokés temporaires. En 2006, les autorités municipales firent intervenir la police et mirent fin à ces activités sous prétexte qu'elles causaient des nuisances sonores.
 </t>
         </is>
       </c>
